--- a/03-15组会/工作簿2.xlsx
+++ b/03-15组会/工作簿2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Iov-with-FL\03-15组会\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90838E-08E4-4751-ADB2-C9AC1C669767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F46E050-EEEC-4657-A981-3FA62088115A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -172,6 +172,38 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FedCan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FedProx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FedAvg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamics-25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamics-50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamics-75</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamics-100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing tai</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,6 +297,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1945,10 +1983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2311,6 +2349,57 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5.347222222222222E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1.2256944444444445E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1.681712962962963E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2.3784722222222221E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.9583333333333331E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
